--- a/tests/artifact/script/UI-Invoice.xlsx
+++ b/tests/artifact/script/UI-Invoice.xlsx
@@ -12584,12 +12584,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O271"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -16343,11 +16343,21 @@
     </row>
     <row r="145" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A145" s="25"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="52"/>
-      <c r="F145" s="52"/>
+      <c r="B145" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="E145" s="52" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F145" s="52" t="s">
+        <v>1048</v>
+      </c>
       <c r="G145" s="28"/>
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
@@ -16360,11 +16370,21 @@
     </row>
     <row r="146" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A146" s="25"/>
-      <c r="B146" s="30"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="52"/>
+      <c r="B146" s="30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E146" s="36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F146" s="36" t="s">
+        <v>1051</v>
+      </c>
       <c r="G146" s="28"/>
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
@@ -16377,21 +16397,11 @@
     </row>
     <row r="147" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A147" s="25"/>
-      <c r="B147" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C147" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D147" s="52" t="s">
-        <v>493</v>
-      </c>
-      <c r="E147" s="52" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F147" s="52" t="s">
-        <v>1048</v>
-      </c>
+      <c r="B147" s="30"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
       <c r="G147" s="28"/>
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
@@ -16404,21 +16414,11 @@
     </row>
     <row r="148" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A148" s="25"/>
-      <c r="B148" s="30" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C148" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E148" s="36" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F148" s="36" t="s">
-        <v>1051</v>
-      </c>
+      <c r="B148" s="30"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
       <c r="G148" s="28"/>
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
@@ -16499,11 +16499,21 @@
     </row>
     <row r="153" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A153" s="25"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="27"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28"/>
+      <c r="B153" s="30" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>1054</v>
+      </c>
       <c r="G153" s="28"/>
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
@@ -16516,10 +16526,18 @@
     </row>
     <row r="154" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A154" s="25"/>
-      <c r="B154" s="30"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="28"/>
+      <c r="B154" s="30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E154" s="28" t="s">
+        <v>1056</v>
+      </c>
       <c r="F154" s="28"/>
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
@@ -16533,20 +16551,18 @@
     </row>
     <row r="155" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A155" s="25"/>
-      <c r="B155" s="30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C155" s="27" t="s">
+      <c r="B155" s="34"/>
+      <c r="C155" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D155" s="28" t="s">
-        <v>706</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F155" s="28" t="s">
-        <v>1054</v>
+      <c r="D155" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="E155" s="36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F155" s="36" t="s">
+        <v>1058</v>
       </c>
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
@@ -16560,19 +16576,21 @@
     </row>
     <row r="156" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A156" s="25"/>
-      <c r="B156" s="30" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D156" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="E156" s="28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F156" s="28"/>
+      <c r="B156" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E156" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F156" s="36" t="s">
+        <v>1060</v>
+      </c>
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
@@ -16585,18 +16603,20 @@
     </row>
     <row r="157" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A157" s="25"/>
-      <c r="B157" s="34"/>
+      <c r="B157" s="34" t="s">
+        <v>885</v>
+      </c>
       <c r="C157" s="35" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D157" s="36" t="s">
-        <v>493</v>
+        <v>49</v>
       </c>
       <c r="E157" s="36" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="F157" s="36" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
@@ -16610,21 +16630,11 @@
     </row>
     <row r="158" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A158" s="25"/>
-      <c r="B158" s="34" t="s">
-        <v>882</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D158" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="E158" s="36" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F158" s="36" t="s">
-        <v>1060</v>
-      </c>
+      <c r="B158" s="30"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
@@ -16637,21 +16647,11 @@
     </row>
     <row r="159" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A159" s="25"/>
-      <c r="B159" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E159" s="36" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F159" s="36" t="s">
-        <v>1062</v>
-      </c>
+      <c r="B159" s="30"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
       <c r="G159" s="28"/>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
@@ -16869,10 +16869,18 @@
     <row r="172" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A172" s="25"/>
       <c r="B172" s="30"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
+      <c r="C172" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>775</v>
+      </c>
       <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
@@ -16886,10 +16894,18 @@
     <row r="173" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A173" s="25"/>
       <c r="B173" s="30"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
+      <c r="C173" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="F173" s="31" t="s">
+        <v>767</v>
+      </c>
       <c r="G173" s="28"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
@@ -16904,16 +16920,16 @@
       <c r="A174" s="25"/>
       <c r="B174" s="30"/>
       <c r="C174" s="32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>1063</v>
+        <v>768</v>
       </c>
       <c r="F174" s="31" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="G174" s="28"/>
       <c r="H174" s="28"/>
@@ -16931,14 +16947,14 @@
       <c r="C175" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="31" t="s">
-        <v>471</v>
+      <c r="D175" s="56" t="s">
+        <v>49</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F175" s="31" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="G175" s="28"/>
       <c r="H175" s="28"/>
@@ -16950,25 +16966,31 @@
       <c r="N175" s="48"/>
       <c r="O175" s="39"/>
     </row>
-    <row r="176" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="25"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D176" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="E176" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="F176" s="31" t="s">
-        <v>769</v>
+    <row r="176" customFormat="1" ht="45" customHeight="1" spans="1:15">
+      <c r="A176" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C176" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="E176" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="F176" s="28" t="s">
+        <v>775</v>
       </c>
       <c r="G176" s="28"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
-      <c r="J176" s="47"/>
+      <c r="J176" s="47" t="s">
+        <v>776</v>
+      </c>
       <c r="K176" s="39"/>
       <c r="L176" s="48"/>
       <c r="M176" s="49"/>
@@ -16977,35 +16999,37 @@
     </row>
     <row r="177" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A177" s="25"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D177" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E177" s="31" t="s">
-        <v>770</v>
-      </c>
-      <c r="F177" s="31" t="s">
-        <v>771</v>
+      <c r="B177" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="C177" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="E177" s="58" t="s">
+        <v>778</v>
+      </c>
+      <c r="F177" s="28" t="s">
+        <v>775</v>
       </c>
       <c r="G177" s="28"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
-      <c r="J177" s="47"/>
+      <c r="J177" s="47" t="s">
+        <v>779</v>
+      </c>
       <c r="K177" s="39"/>
       <c r="L177" s="48"/>
       <c r="M177" s="49"/>
       <c r="N177" s="48"/>
       <c r="O177" s="39"/>
     </row>
-    <row r="178" customFormat="1" ht="45" customHeight="1" spans="1:15">
-      <c r="A178" s="25" t="s">
-        <v>772</v>
-      </c>
+    <row r="178" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="25"/>
       <c r="B178" s="30" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="C178" s="57" t="s">
         <v>30</v>
@@ -17014,7 +17038,7 @@
         <v>576</v>
       </c>
       <c r="E178" s="58" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="F178" s="28" t="s">
         <v>775</v>
@@ -17023,7 +17047,7 @@
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
       <c r="J178" s="47" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="K178" s="39"/>
       <c r="L178" s="48"/>
@@ -17033,9 +17057,7 @@
     </row>
     <row r="179" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A179" s="25"/>
-      <c r="B179" s="30" t="s">
-        <v>777</v>
-      </c>
+      <c r="B179" s="30"/>
       <c r="C179" s="57" t="s">
         <v>30</v>
       </c>
@@ -17043,16 +17065,16 @@
         <v>576</v>
       </c>
       <c r="E179" s="58" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="F179" s="28" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
       <c r="J179" s="47" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="K179" s="39"/>
       <c r="L179" s="48"/>
@@ -17081,7 +17103,7 @@
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
       <c r="J180" s="47" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="K180" s="39"/>
       <c r="L180" s="48"/>
@@ -17108,7 +17130,7 @@
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
       <c r="J181" s="47" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="K181" s="39"/>
       <c r="L181" s="48"/>
@@ -17119,26 +17141,24 @@
     <row r="182" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A182" s="25"/>
       <c r="B182" s="30" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C182" s="57" t="s">
         <v>30</v>
       </c>
       <c r="D182" s="58" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E182" s="58" t="s">
-        <v>781</v>
-      </c>
-      <c r="F182" s="28" t="s">
-        <v>775</v>
+        <v>789</v>
+      </c>
+      <c r="F182" s="59" t="s">
+        <v>790</v>
       </c>
       <c r="G182" s="28"/>
       <c r="H182" s="28"/>
       <c r="I182" s="28"/>
-      <c r="J182" s="47" t="s">
-        <v>786</v>
-      </c>
+      <c r="J182" s="47"/>
       <c r="K182" s="39"/>
       <c r="L182" s="48"/>
       <c r="M182" s="49"/>
@@ -17147,48 +17167,48 @@
     </row>
     <row r="183" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A183" s="25"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D183" s="58" t="s">
-        <v>576</v>
-      </c>
-      <c r="E183" s="58" t="s">
-        <v>783</v>
-      </c>
-      <c r="F183" s="28" t="s">
-        <v>784</v>
+      <c r="B183" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C183" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>793</v>
       </c>
       <c r="G183" s="28"/>
       <c r="H183" s="28"/>
       <c r="I183" s="28"/>
-      <c r="J183" s="47" t="s">
-        <v>787</v>
-      </c>
+      <c r="J183" s="47"/>
       <c r="K183" s="39"/>
       <c r="L183" s="48"/>
       <c r="M183" s="49"/>
       <c r="N183" s="48"/>
       <c r="O183" s="39"/>
     </row>
-    <row r="184" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="25"/>
+    <row r="184" ht="23" customHeight="1" spans="1:15">
+      <c r="A184" s="25" t="s">
+        <v>794</v>
+      </c>
       <c r="B184" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="C184" s="57" t="s">
+        <v>795</v>
+      </c>
+      <c r="C184" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D184" s="58" t="s">
-        <v>707</v>
-      </c>
-      <c r="E184" s="58" t="s">
-        <v>789</v>
-      </c>
-      <c r="F184" s="59" t="s">
-        <v>790</v>
-      </c>
+      <c r="D184" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="E184" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="F184" s="28"/>
       <c r="G184" s="28"/>
       <c r="H184" s="28"/>
       <c r="I184" s="28"/>
@@ -17199,23 +17219,21 @@
       <c r="N184" s="48"/>
       <c r="O184" s="39"/>
     </row>
-    <row r="185" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="185" ht="23" customHeight="1" spans="1:15">
       <c r="A185" s="25"/>
-      <c r="B185" s="20" t="s">
-        <v>791</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="E185" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="F185" s="31" t="s">
-        <v>793</v>
-      </c>
+      <c r="B185" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="C185" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D185" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="E185" s="28" t="s">
+        <v>784</v>
+      </c>
+      <c r="F185" s="60"/>
       <c r="G185" s="28"/>
       <c r="H185" s="28"/>
       <c r="I185" s="28"/>
@@ -17227,11 +17245,9 @@
       <c r="O185" s="39"/>
     </row>
     <row r="186" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="25" t="s">
-        <v>794</v>
-      </c>
+      <c r="A186" s="25"/>
       <c r="B186" s="30" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C186" s="27" t="s">
         <v>30</v>
@@ -17240,9 +17256,9 @@
         <v>253</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>796</v>
-      </c>
-      <c r="F186" s="28"/>
+        <v>799</v>
+      </c>
+      <c r="F186" s="60"/>
       <c r="G186" s="28"/>
       <c r="H186" s="28"/>
       <c r="I186" s="28"/>
@@ -17256,18 +17272,20 @@
     <row r="187" ht="23" customHeight="1" spans="1:15">
       <c r="A187" s="25"/>
       <c r="B187" s="30" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C187" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>784</v>
-      </c>
-      <c r="F187" s="60"/>
+        <v>801</v>
+      </c>
+      <c r="F187" s="28" t="s">
+        <v>802</v>
+      </c>
       <c r="G187" s="28"/>
       <c r="H187" s="28"/>
       <c r="I187" s="28"/>
@@ -17281,7 +17299,7 @@
     <row r="188" ht="23" customHeight="1" spans="1:15">
       <c r="A188" s="25"/>
       <c r="B188" s="30" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C188" s="27" t="s">
         <v>30</v>
@@ -17290,9 +17308,9 @@
         <v>253</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="F188" s="60"/>
+        <v>804</v>
+      </c>
+      <c r="F188" s="28"/>
       <c r="G188" s="28"/>
       <c r="H188" s="28"/>
       <c r="I188" s="28"/>
@@ -17305,20 +17323,18 @@
     </row>
     <row r="189" ht="23" customHeight="1" spans="1:15">
       <c r="A189" s="25"/>
-      <c r="B189" s="30" t="s">
-        <v>800</v>
-      </c>
+      <c r="B189" s="30"/>
       <c r="C189" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
       <c r="G189" s="28"/>
       <c r="H189" s="28"/>
@@ -17333,18 +17349,20 @@
     <row r="190" ht="23" customHeight="1" spans="1:15">
       <c r="A190" s="25"/>
       <c r="B190" s="30" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C190" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>253</v>
+        <v>706</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="F190" s="28"/>
+        <v>805</v>
+      </c>
+      <c r="F190" s="28" t="s">
+        <v>807</v>
+      </c>
       <c r="G190" s="28"/>
       <c r="H190" s="28"/>
       <c r="I190" s="28"/>
@@ -17357,7 +17375,9 @@
     </row>
     <row r="191" ht="23" customHeight="1" spans="1:15">
       <c r="A191" s="25"/>
-      <c r="B191" s="30"/>
+      <c r="B191" s="30" t="s">
+        <v>808</v>
+      </c>
       <c r="C191" s="27" t="s">
         <v>30</v>
       </c>
@@ -17365,10 +17385,10 @@
         <v>576</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F191" s="28" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="G191" s="28"/>
       <c r="H191" s="28"/>
@@ -17383,20 +17403,18 @@
     <row r="192" ht="23" customHeight="1" spans="1:15">
       <c r="A192" s="25"/>
       <c r="B192" s="30" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C192" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>706</v>
+        <v>253</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>805</v>
-      </c>
-      <c r="F192" s="28" t="s">
-        <v>807</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="F192" s="28"/>
       <c r="G192" s="28"/>
       <c r="H192" s="28"/>
       <c r="I192" s="28"/>
@@ -17410,7 +17428,7 @@
     <row r="193" ht="23" customHeight="1" spans="1:15">
       <c r="A193" s="25"/>
       <c r="B193" s="30" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C193" s="27" t="s">
         <v>30</v>
@@ -17419,10 +17437,10 @@
         <v>576</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="F193" s="28" t="s">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="G193" s="28"/>
       <c r="H193" s="28"/>
@@ -17437,18 +17455,20 @@
     <row r="194" ht="23" customHeight="1" spans="1:15">
       <c r="A194" s="25"/>
       <c r="B194" s="30" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C194" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>253</v>
+        <v>706</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="F194" s="28"/>
+        <v>816</v>
+      </c>
+      <c r="F194" s="28" t="s">
+        <v>817</v>
+      </c>
       <c r="G194" s="28"/>
       <c r="H194" s="28"/>
       <c r="I194" s="28"/>
@@ -17460,9 +17480,11 @@
       <c r="O194" s="39"/>
     </row>
     <row r="195" ht="23" customHeight="1" spans="1:15">
-      <c r="A195" s="25"/>
+      <c r="A195" s="25" t="s">
+        <v>818</v>
+      </c>
       <c r="B195" s="30" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C195" s="27" t="s">
         <v>30</v>
@@ -17471,10 +17493,10 @@
         <v>576</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="F195" s="28" t="s">
-        <v>775</v>
+        <v>810</v>
       </c>
       <c r="G195" s="28"/>
       <c r="H195" s="28"/>
@@ -17488,21 +17510,19 @@
     </row>
     <row r="196" ht="23" customHeight="1" spans="1:15">
       <c r="A196" s="25"/>
-      <c r="B196" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="C196" s="27" t="s">
+      <c r="B196" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C196" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D196" s="28" t="s">
-        <v>706</v>
+      <c r="D196" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>816</v>
-      </c>
-      <c r="F196" s="28" t="s">
-        <v>817</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="F196" s="31"/>
       <c r="G196" s="28"/>
       <c r="H196" s="28"/>
       <c r="I196" s="28"/>
@@ -17514,23 +17534,21 @@
       <c r="O196" s="39"/>
     </row>
     <row r="197" ht="23" customHeight="1" spans="1:15">
-      <c r="A197" s="25" t="s">
-        <v>818</v>
-      </c>
+      <c r="A197" s="25"/>
       <c r="B197" s="30" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C197" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>576</v>
+        <v>706</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="G197" s="28"/>
       <c r="H197" s="28"/>
@@ -17544,19 +17562,19 @@
     </row>
     <row r="198" ht="23" customHeight="1" spans="1:15">
       <c r="A198" s="25"/>
-      <c r="B198" s="20" t="s">
-        <v>791</v>
-      </c>
-      <c r="C198" s="32" t="s">
+      <c r="B198" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="C198" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D198" s="31" t="s">
-        <v>363</v>
+      <c r="D198" s="28" t="s">
+        <v>253</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>821</v>
-      </c>
-      <c r="F198" s="31"/>
+        <v>825</v>
+      </c>
+      <c r="F198" s="28"/>
       <c r="G198" s="28"/>
       <c r="H198" s="28"/>
       <c r="I198" s="28"/>
@@ -17570,20 +17588,18 @@
     <row r="199" ht="23" customHeight="1" spans="1:15">
       <c r="A199" s="25"/>
       <c r="B199" s="30" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C199" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>706</v>
+        <v>363</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>821</v>
-      </c>
-      <c r="F199" s="28" t="s">
-        <v>823</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="F199" s="28"/>
       <c r="G199" s="28"/>
       <c r="H199" s="28"/>
       <c r="I199" s="28"/>
@@ -17595,9 +17611,11 @@
       <c r="O199" s="39"/>
     </row>
     <row r="200" ht="23" customHeight="1" spans="1:15">
-      <c r="A200" s="25"/>
+      <c r="A200" s="25" t="s">
+        <v>828</v>
+      </c>
       <c r="B200" s="30" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C200" s="27" t="s">
         <v>30</v>
@@ -17606,7 +17624,7 @@
         <v>253</v>
       </c>
       <c r="E200" s="28" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="F200" s="28"/>
       <c r="G200" s="28"/>
@@ -17622,18 +17640,20 @@
     <row r="201" ht="23" customHeight="1" spans="1:15">
       <c r="A201" s="25"/>
       <c r="B201" s="30" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C201" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>827</v>
-      </c>
-      <c r="F201" s="28"/>
+        <v>832</v>
+      </c>
+      <c r="F201" s="28" t="s">
+        <v>833</v>
+      </c>
       <c r="G201" s="28"/>
       <c r="H201" s="28"/>
       <c r="I201" s="28"/>
@@ -17645,20 +17665,16 @@
       <c r="O201" s="39"/>
     </row>
     <row r="202" ht="23" customHeight="1" spans="1:15">
-      <c r="A202" s="25" t="s">
-        <v>828</v>
-      </c>
-      <c r="B202" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="C202" s="27" t="s">
+      <c r="A202" s="61"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D202" s="28" t="s">
+      <c r="D202" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="E202" s="28" t="s">
-        <v>830</v>
+      <c r="E202" s="58" t="s">
+        <v>834</v>
       </c>
       <c r="F202" s="28"/>
       <c r="G202" s="28"/>
@@ -17673,20 +17689,18 @@
     </row>
     <row r="203" ht="23" customHeight="1" spans="1:15">
       <c r="A203" s="25"/>
-      <c r="B203" s="30" t="s">
-        <v>831</v>
-      </c>
-      <c r="C203" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D203" s="28" t="s">
-        <v>707</v>
-      </c>
-      <c r="E203" s="28" t="s">
-        <v>832</v>
+      <c r="B203" s="30"/>
+      <c r="C203" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="E203" s="58" t="s">
+        <v>766</v>
       </c>
       <c r="F203" s="28" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G203" s="28"/>
       <c r="H203" s="28"/>
@@ -17699,18 +17713,12 @@
       <c r="O203" s="39"/>
     </row>
     <row r="204" ht="23" customHeight="1" spans="1:15">
-      <c r="A204" s="61"/>
-      <c r="B204" s="62"/>
-      <c r="C204" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="E204" s="58" t="s">
-        <v>834</v>
-      </c>
-      <c r="F204" s="28"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="27"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="29"/>
       <c r="G204" s="28"/>
       <c r="H204" s="28"/>
       <c r="I204" s="28"/>
@@ -17724,18 +17732,10 @@
     <row r="205" ht="23" customHeight="1" spans="1:15">
       <c r="A205" s="25"/>
       <c r="B205" s="30"/>
-      <c r="C205" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D205" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="E205" s="58" t="s">
-        <v>766</v>
-      </c>
-      <c r="F205" s="28" t="s">
-        <v>835</v>
-      </c>
+      <c r="C205" s="27"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="29"/>
       <c r="G205" s="28"/>
       <c r="H205" s="28"/>
       <c r="I205" s="28"/>
@@ -17752,7 +17752,7 @@
       <c r="C206" s="27"/>
       <c r="D206" s="28"/>
       <c r="E206" s="28"/>
-      <c r="F206" s="29"/>
+      <c r="F206" s="28"/>
       <c r="G206" s="28"/>
       <c r="H206" s="28"/>
       <c r="I206" s="28"/>
@@ -17769,7 +17769,7 @@
       <c r="C207" s="27"/>
       <c r="D207" s="28"/>
       <c r="E207" s="28"/>
-      <c r="F207" s="29"/>
+      <c r="F207" s="28"/>
       <c r="G207" s="28"/>
       <c r="H207" s="28"/>
       <c r="I207" s="28"/>
@@ -18833,40 +18833,6 @@
       <c r="M269" s="49"/>
       <c r="N269" s="48"/>
       <c r="O269" s="39"/>
-    </row>
-    <row r="270" ht="23" customHeight="1" spans="1:15">
-      <c r="A270" s="25"/>
-      <c r="B270" s="30"/>
-      <c r="C270" s="27"/>
-      <c r="D270" s="28"/>
-      <c r="E270" s="28"/>
-      <c r="F270" s="28"/>
-      <c r="G270" s="28"/>
-      <c r="H270" s="28"/>
-      <c r="I270" s="28"/>
-      <c r="J270" s="47"/>
-      <c r="K270" s="39"/>
-      <c r="L270" s="48"/>
-      <c r="M270" s="49"/>
-      <c r="N270" s="48"/>
-      <c r="O270" s="39"/>
-    </row>
-    <row r="271" ht="23" customHeight="1" spans="1:15">
-      <c r="A271" s="25"/>
-      <c r="B271" s="30"/>
-      <c r="C271" s="27"/>
-      <c r="D271" s="28"/>
-      <c r="E271" s="28"/>
-      <c r="F271" s="28"/>
-      <c r="G271" s="28"/>
-      <c r="H271" s="28"/>
-      <c r="I271" s="28"/>
-      <c r="J271" s="47"/>
-      <c r="K271" s="39"/>
-      <c r="L271" s="48"/>
-      <c r="M271" s="49"/>
-      <c r="N271" s="48"/>
-      <c r="O271" s="39"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -18898,7 +18864,7 @@
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N185">
+  <conditionalFormatting sqref="N10:N183">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -18909,18 +18875,18 @@
       <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N208:N271">
+  <conditionalFormatting sqref="N206:N269">
     <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N208,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N206,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N208,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N206,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N208,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N206,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N186:N207">
+  <conditionalFormatting sqref="N1 N184:N205">
     <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -18932,10 +18898,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C14 C15 C16 C17 C20 C25 C26 C27 C30 C31 C32 C33 C34 C35 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C76 C77 C78 C79 C80 C83 C84 C87 C88 C89 C92 C93 C94 C97 C98 C101 C102 C103 C113 C126 C127 C128 C129 C132 C133 C134 C135 C136 C137 C138 C141 C147 C148 C155 C156 C157 C158 C159 C173 C174 C175 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C197 C198 C204 C205 C7:C8 C9:C10 C12:C13 C18:C19 C21:C22 C23:C24 C28:C29 C36:C37 C52:C53 C74:C75 C81:C82 C85:C86 C90:C91 C95:C96 C99:C100 C104:C108 C109:C112 C114:C117 C118:C122 C123:C125 C130:C131 C139:C140 C142:C146 C149:C154 C160:C162 C163:C172 C176:C177 C199:C203 C206:C207 C208:C271">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C11 C14 C15 C16 C17 C20 C25 C26 C27 C30 C31 C32 C33 C34 C35 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C76 C77 C78 C79 C80 C83 C84 C87 C88 C89 C92 C93 C94 C97 C98 C101 C102 C103 C113 C126 C127 C128 C129 C132 C133 C134 C135 C136 C137 C138 C141 C145 C146 C153 C154 C155 C156 C157 C171 C172 C173 C176 C177 C178 C179 C180 C181 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C192 C193 C194 C195 C196 C202 C203 C7:C8 C9:C10 C12:C13 C18:C19 C21:C22 C23:C24 C28:C29 C36:C37 C52:C53 C74:C75 C81:C82 C85:C86 C90:C91 C95:C96 C99:C100 C104:C108 C109:C112 C114:C117 C118:C122 C123:C125 C130:C131 C139:C140 C142:C144 C147:C152 C158:C160 C161:C170 C174:C175 C197:C201 C204:C205 C206:C269">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D14 D15 D16 D17 D20 D25 D26 D27 D30 D31 D32 D33 D34 D35 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D76 D77 D78 D79 D80 D83 D84 D87 D88 D89 D92 D93 D94 D97 D98 D101 D102 D103 D113 D126 D127 D128 D129 D132 D133 D134 D135 D136 D137 D138 D141 D147 D148 D155 D156 D157 D158 D159 D173 D174 D175 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D197 D198 D204 D205 D7:D8 D12:D13 D18:D19 D21:D22 D23:D24 D28:D29 D36:D37 D52:D53 D74:D75 D81:D82 D85:D86 D90:D91 D95:D96 D99:D100 D104:D108 D109:D112 D114:D117 D118:D122 D123:D125 D130:D131 D139:D140 D142:D146 D149:D154 D160:D162 D163:D172 D176:D177 D199:D203 D206:D207 D208:D271">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D14 D15 D16 D17 D20 D25 D26 D27 D30 D31 D32 D33 D34 D35 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D76 D77 D78 D79 D80 D83 D84 D87 D88 D89 D92 D93 D94 D97 D98 D101 D102 D103 D113 D126 D127 D128 D129 D132 D133 D134 D135 D136 D137 D138 D141 D145 D146 D153 D154 D155 D156 D157 D171 D172 D173 D176 D177 D178 D179 D180 D181 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D192 D193 D194 D195 D196 D202 D203 D7:D8 D12:D13 D18:D19 D21:D22 D23:D24 D28:D29 D36:D37 D52:D53 D74:D75 D81:D82 D85:D86 D90:D91 D95:D96 D99:D100 D104:D108 D109:D112 D114:D117 D118:D122 D123:D125 D130:D131 D139:D140 D142:D144 D147:D152 D158:D160 D161:D170 D174:D175 D197:D201 D204:D205 D206:D269">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-Invoice.xlsx
+++ b/tests/artifact/script/UI-Invoice.xlsx
@@ -3847,7 +3847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4048,6 +4048,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7251,7 +7259,7 @@
       <c r="E5" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="61" t="s">
         <v>749</v>
       </c>
       <c r="G5" s="28"/>
@@ -10055,9 +10063,9 @@
   <dimension ref="A1:O276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202:F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -13317,19 +13325,19 @@
     </row>
     <row r="125" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="25"/>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="38" t="s">
         <v>809</v>
       </c>
-      <c r="C125" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D125" s="55" t="s">
+      <c r="C125" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="40" t="s">
         <v>493</v>
       </c>
-      <c r="E125" s="55" t="s">
+      <c r="E125" s="40" t="s">
         <v>948</v>
       </c>
-      <c r="F125" s="56" t="s">
+      <c r="F125" s="41" t="s">
         <v>949</v>
       </c>
       <c r="G125" s="28"/>
@@ -13344,19 +13352,19 @@
     </row>
     <row r="126" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A126" s="25"/>
-      <c r="B126" s="34" t="s">
+      <c r="B126" s="38" t="s">
         <v>812</v>
       </c>
-      <c r="C126" s="54" t="s">
+      <c r="C126" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="55" t="s">
+      <c r="D126" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="E126" s="55" t="s">
+      <c r="E126" s="40" t="s">
         <v>950</v>
       </c>
-      <c r="F126" s="55" t="s">
+      <c r="F126" s="40" t="s">
         <v>951</v>
       </c>
       <c r="G126" s="28"/>
@@ -13371,19 +13379,19 @@
     </row>
     <row r="127" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A127" s="25"/>
-      <c r="B127" s="34" t="s">
+      <c r="B127" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="C127" s="54" t="s">
+      <c r="C127" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="55" t="s">
+      <c r="D127" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E127" s="55" t="s">
+      <c r="E127" s="40" t="s">
         <v>952</v>
       </c>
-      <c r="F127" s="55" t="s">
+      <c r="F127" s="40" t="s">
         <v>953</v>
       </c>
       <c r="G127" s="28"/>
@@ -13423,19 +13431,19 @@
     </row>
     <row r="129" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A129" s="25"/>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="38" t="s">
         <v>955</v>
       </c>
-      <c r="C129" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" s="36" t="s">
+      <c r="C129" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="58" t="s">
         <v>956</v>
       </c>
-      <c r="F129" s="36" t="s">
+      <c r="F129" s="58" t="s">
         <v>957</v>
       </c>
       <c r="G129" s="28"/>
@@ -13610,7 +13618,7 @@
       <c r="C136" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="57" t="s">
+      <c r="D136" s="59" t="s">
         <v>49</v>
       </c>
       <c r="E136" s="31" t="s">
@@ -13637,7 +13645,7 @@
       <c r="C137" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="57" t="s">
+      <c r="D137" s="59" t="s">
         <v>302</v>
       </c>
       <c r="E137" s="31" t="s">
@@ -13958,7 +13966,7 @@
         <v>773</v>
       </c>
       <c r="F149" s="31"/>
-      <c r="G149" s="58"/>
+      <c r="G149" s="60"/>
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
       <c r="J149" s="51"/>
@@ -13985,7 +13993,7 @@
       <c r="F150" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="G150" s="58"/>
+      <c r="G150" s="60"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
       <c r="J150" s="51"/>
@@ -14010,7 +14018,7 @@
       <c r="F151" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="G151" s="58"/>
+      <c r="G151" s="60"/>
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
       <c r="J151" s="51"/>
@@ -14035,7 +14043,7 @@
         <v>864</v>
       </c>
       <c r="F152" s="31"/>
-      <c r="G152" s="58"/>
+      <c r="G152" s="60"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
       <c r="J152" s="51"/>
@@ -14060,7 +14068,7 @@
         <v>864</v>
       </c>
       <c r="F153" s="31"/>
-      <c r="G153" s="58"/>
+      <c r="G153" s="60"/>
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
       <c r="J153" s="51"/>
@@ -14085,7 +14093,7 @@
         <v>867</v>
       </c>
       <c r="F154" s="31"/>
-      <c r="G154" s="58"/>
+      <c r="G154" s="60"/>
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
       <c r="J154" s="51"/>
@@ -14110,7 +14118,7 @@
         <v>869</v>
       </c>
       <c r="F155" s="31"/>
-      <c r="G155" s="58"/>
+      <c r="G155" s="60"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
       <c r="J155" s="51"/>
@@ -14137,7 +14145,7 @@
       <c r="F156" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G156" s="58"/>
+      <c r="G156" s="60"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
       <c r="J156" s="51"/>
@@ -14162,7 +14170,7 @@
         <v>864</v>
       </c>
       <c r="F157" s="31"/>
-      <c r="G157" s="58"/>
+      <c r="G157" s="60"/>
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
       <c r="J157" s="51"/>
@@ -14189,7 +14197,7 @@
       <c r="F158" s="31" t="s">
         <v>997</v>
       </c>
-      <c r="G158" s="58"/>
+      <c r="G158" s="60"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
       <c r="J158" s="51"/>
@@ -14216,7 +14224,7 @@
       <c r="F159" s="31" t="s">
         <v>998</v>
       </c>
-      <c r="G159" s="58"/>
+      <c r="G159" s="60"/>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
       <c r="J159" s="51"/>
@@ -14243,7 +14251,7 @@
       <c r="F160" s="31" t="s">
         <v>999</v>
       </c>
-      <c r="G160" s="58"/>
+      <c r="G160" s="60"/>
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
       <c r="J160" s="51"/>
@@ -14270,7 +14278,7 @@
       <c r="F161" s="31" t="s">
         <v>1000</v>
       </c>
-      <c r="G161" s="58"/>
+      <c r="G161" s="60"/>
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
       <c r="J161" s="51"/>
@@ -14295,7 +14303,7 @@
         <v>884</v>
       </c>
       <c r="F162" s="31"/>
-      <c r="G162" s="58"/>
+      <c r="G162" s="60"/>
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
       <c r="J162" s="51"/>
@@ -14322,7 +14330,7 @@
         <v>887</v>
       </c>
       <c r="F163" s="31"/>
-      <c r="G163" s="58"/>
+      <c r="G163" s="60"/>
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
       <c r="J163" s="51"/>
@@ -14349,7 +14357,7 @@
       <c r="F164" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G164" s="58"/>
+      <c r="G164" s="60"/>
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
       <c r="J164" s="51"/>
@@ -14374,7 +14382,7 @@
         <v>887</v>
       </c>
       <c r="F165" s="31"/>
-      <c r="G165" s="58"/>
+      <c r="G165" s="60"/>
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
       <c r="J165" s="51"/>
@@ -14397,7 +14405,7 @@
         <v>889</v>
       </c>
       <c r="F166" s="31"/>
-      <c r="G166" s="58"/>
+      <c r="G166" s="60"/>
       <c r="H166" s="28"/>
       <c r="I166" s="28"/>
       <c r="J166" s="51"/>
@@ -14424,7 +14432,7 @@
         <v>893</v>
       </c>
       <c r="F167" s="31"/>
-      <c r="G167" s="58"/>
+      <c r="G167" s="60"/>
       <c r="H167" s="28"/>
       <c r="I167" s="28"/>
       <c r="J167" s="51"/>
@@ -14449,7 +14457,7 @@
         <v>895</v>
       </c>
       <c r="F168" s="31"/>
-      <c r="G168" s="58"/>
+      <c r="G168" s="60"/>
       <c r="H168" s="28"/>
       <c r="I168" s="28"/>
       <c r="J168" s="51"/>
@@ -14474,7 +14482,7 @@
         <v>897</v>
       </c>
       <c r="F169" s="31"/>
-      <c r="G169" s="58"/>
+      <c r="G169" s="60"/>
       <c r="H169" s="28"/>
       <c r="I169" s="28"/>
       <c r="J169" s="51"/>
@@ -14503,7 +14511,7 @@
       <c r="F170" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G170" s="58"/>
+      <c r="G170" s="60"/>
       <c r="H170" s="28"/>
       <c r="I170" s="28"/>
       <c r="J170" s="51"/>
@@ -14528,7 +14536,7 @@
         <v>902</v>
       </c>
       <c r="F171" s="31"/>
-      <c r="G171" s="58"/>
+      <c r="G171" s="60"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
       <c r="J171" s="51"/>
@@ -14553,7 +14561,7 @@
         <v>904</v>
       </c>
       <c r="F172" s="31"/>
-      <c r="G172" s="58"/>
+      <c r="G172" s="60"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
       <c r="J172" s="51"/>
@@ -14580,7 +14588,7 @@
       <c r="F173" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G173" s="58"/>
+      <c r="G173" s="60"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
       <c r="J173" s="51"/>
@@ -14605,7 +14613,7 @@
         <v>906</v>
       </c>
       <c r="F174" s="31"/>
-      <c r="G174" s="58"/>
+      <c r="G174" s="60"/>
       <c r="H174" s="28"/>
       <c r="I174" s="28"/>
       <c r="J174" s="51"/>
@@ -14632,7 +14640,7 @@
         <v>909</v>
       </c>
       <c r="F175" s="31"/>
-      <c r="G175" s="58"/>
+      <c r="G175" s="60"/>
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
       <c r="J175" s="51"/>
@@ -14657,7 +14665,7 @@
         <v>911</v>
       </c>
       <c r="F176" s="31"/>
-      <c r="G176" s="58"/>
+      <c r="G176" s="60"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
       <c r="J176" s="51"/>
@@ -14682,7 +14690,7 @@
         <v>913</v>
       </c>
       <c r="F177" s="31"/>
-      <c r="G177" s="58"/>
+      <c r="G177" s="60"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
       <c r="J177" s="51"/>
@@ -14709,7 +14717,7 @@
       <c r="F178" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G178" s="58"/>
+      <c r="G178" s="60"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
       <c r="J178" s="51"/>
@@ -14736,7 +14744,7 @@
         <v>918</v>
       </c>
       <c r="F179" s="31"/>
-      <c r="G179" s="58"/>
+      <c r="G179" s="60"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
       <c r="J179" s="51"/>
@@ -14761,7 +14769,7 @@
         <v>920</v>
       </c>
       <c r="F180" s="31"/>
-      <c r="G180" s="58"/>
+      <c r="G180" s="60"/>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
       <c r="J180" s="51"/>
@@ -14788,7 +14796,7 @@
         <v>923</v>
       </c>
       <c r="F181" s="31"/>
-      <c r="G181" s="58"/>
+      <c r="G181" s="60"/>
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
       <c r="J181" s="51"/>
@@ -14815,7 +14823,7 @@
       <c r="F182" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G182" s="58"/>
+      <c r="G182" s="60"/>
       <c r="H182" s="28"/>
       <c r="I182" s="28"/>
       <c r="J182" s="51"/>
@@ -14842,7 +14850,7 @@
         <v>780</v>
       </c>
       <c r="F183" s="31"/>
-      <c r="G183" s="58"/>
+      <c r="G183" s="60"/>
       <c r="H183" s="28"/>
       <c r="I183" s="28"/>
       <c r="J183" s="51"/>
@@ -14869,7 +14877,7 @@
       <c r="F184" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="G184" s="58"/>
+      <c r="G184" s="60"/>
       <c r="H184" s="28"/>
       <c r="I184" s="28"/>
       <c r="J184" s="51"/>
@@ -14896,7 +14904,7 @@
       <c r="F185" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="G185" s="58"/>
+      <c r="G185" s="60"/>
       <c r="H185" s="28"/>
       <c r="I185" s="28"/>
       <c r="J185" s="51"/>
@@ -14921,7 +14929,7 @@
         <v>785</v>
       </c>
       <c r="F186" s="31"/>
-      <c r="G186" s="58"/>
+      <c r="G186" s="60"/>
       <c r="H186" s="28"/>
       <c r="I186" s="28"/>
       <c r="J186" s="51"/>
@@ -14948,7 +14956,7 @@
       <c r="F187" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="G187" s="58"/>
+      <c r="G187" s="60"/>
       <c r="H187" s="28"/>
       <c r="I187" s="28"/>
       <c r="J187" s="51"/>
@@ -14975,7 +14983,7 @@
         <v>929</v>
       </c>
       <c r="F188" s="31"/>
-      <c r="G188" s="58"/>
+      <c r="G188" s="60"/>
       <c r="H188" s="28"/>
       <c r="I188" s="28"/>
       <c r="J188" s="51"/>
@@ -15000,7 +15008,7 @@
         <v>931</v>
       </c>
       <c r="F189" s="31"/>
-      <c r="G189" s="58"/>
+      <c r="G189" s="60"/>
       <c r="H189" s="28"/>
       <c r="I189" s="28"/>
       <c r="J189" s="51"/>
@@ -15029,7 +15037,7 @@
       <c r="F190" s="31" t="s">
         <v>934</v>
       </c>
-      <c r="G190" s="58"/>
+      <c r="G190" s="60"/>
       <c r="H190" s="28"/>
       <c r="I190" s="28"/>
       <c r="J190" s="51"/>
@@ -15054,7 +15062,7 @@
         <v>936</v>
       </c>
       <c r="F191" s="31"/>
-      <c r="G191" s="58"/>
+      <c r="G191" s="60"/>
       <c r="H191" s="28"/>
       <c r="I191" s="28"/>
       <c r="J191" s="51"/>
@@ -15081,7 +15089,7 @@
       <c r="F192" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G192" s="58"/>
+      <c r="G192" s="60"/>
       <c r="H192" s="28"/>
       <c r="I192" s="28"/>
       <c r="J192" s="51"/>
@@ -15108,7 +15116,7 @@
         <v>940</v>
       </c>
       <c r="F193" s="31"/>
-      <c r="G193" s="58"/>
+      <c r="G193" s="60"/>
       <c r="H193" s="28"/>
       <c r="I193" s="28"/>
       <c r="J193" s="51"/>
@@ -15133,7 +15141,7 @@
         <v>942</v>
       </c>
       <c r="F194" s="31"/>
-      <c r="G194" s="58"/>
+      <c r="G194" s="60"/>
       <c r="H194" s="28"/>
       <c r="I194" s="28"/>
       <c r="J194" s="51"/>
@@ -15158,7 +15166,7 @@
         <v>944</v>
       </c>
       <c r="F195" s="31"/>
-      <c r="G195" s="58"/>
+      <c r="G195" s="60"/>
       <c r="H195" s="28"/>
       <c r="I195" s="28"/>
       <c r="J195" s="51"/>
@@ -15185,7 +15193,7 @@
       <c r="F196" s="31" t="s">
         <v>802</v>
       </c>
-      <c r="G196" s="58"/>
+      <c r="G196" s="60"/>
       <c r="H196" s="28"/>
       <c r="I196" s="28"/>
       <c r="J196" s="51"/>
@@ -15210,7 +15218,7 @@
         <v>947</v>
       </c>
       <c r="F197" s="31"/>
-      <c r="G197" s="58"/>
+      <c r="G197" s="60"/>
       <c r="H197" s="28"/>
       <c r="I197" s="28"/>
       <c r="J197" s="51"/>
@@ -15222,22 +15230,22 @@
     </row>
     <row r="198" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A198" s="25"/>
-      <c r="B198" s="34" t="s">
+      <c r="B198" s="38" t="s">
         <v>809</v>
       </c>
-      <c r="C198" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D198" s="55" t="s">
+      <c r="C198" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="40" t="s">
         <v>493</v>
       </c>
-      <c r="E198" s="55" t="s">
+      <c r="E198" s="40" t="s">
         <v>948</v>
       </c>
-      <c r="F198" s="56" t="s">
+      <c r="F198" s="41" t="s">
         <v>949</v>
       </c>
-      <c r="G198" s="58"/>
+      <c r="G198" s="60"/>
       <c r="H198" s="28"/>
       <c r="I198" s="28"/>
       <c r="J198" s="51"/>
@@ -15249,22 +15257,22 @@
     </row>
     <row r="199" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A199" s="25"/>
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="38" t="s">
         <v>812</v>
       </c>
-      <c r="C199" s="54" t="s">
+      <c r="C199" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="55" t="s">
+      <c r="D199" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="E199" s="55" t="s">
+      <c r="E199" s="40" t="s">
         <v>950</v>
       </c>
-      <c r="F199" s="55" t="s">
+      <c r="F199" s="40" t="s">
         <v>951</v>
       </c>
-      <c r="G199" s="58"/>
+      <c r="G199" s="60"/>
       <c r="H199" s="28"/>
       <c r="I199" s="28"/>
       <c r="J199" s="51"/>
@@ -15276,22 +15284,22 @@
     </row>
     <row r="200" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A200" s="25"/>
-      <c r="B200" s="34" t="s">
+      <c r="B200" s="38" t="s">
         <v>815</v>
       </c>
-      <c r="C200" s="54" t="s">
+      <c r="C200" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D200" s="55" t="s">
+      <c r="D200" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E200" s="55" t="s">
+      <c r="E200" s="40" t="s">
         <v>952</v>
       </c>
-      <c r="F200" s="55" t="s">
+      <c r="F200" s="40" t="s">
         <v>953</v>
       </c>
-      <c r="G200" s="58"/>
+      <c r="G200" s="60"/>
       <c r="H200" s="28"/>
       <c r="I200" s="28"/>
       <c r="J200" s="51"/>
@@ -15316,7 +15324,7 @@
         <v>942</v>
       </c>
       <c r="F201" s="31"/>
-      <c r="G201" s="58"/>
+      <c r="G201" s="60"/>
       <c r="H201" s="28"/>
       <c r="I201" s="28"/>
       <c r="J201" s="51"/>
@@ -15328,22 +15336,22 @@
     </row>
     <row r="202" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A202" s="25"/>
-      <c r="B202" s="34" t="s">
+      <c r="B202" s="38" t="s">
         <v>955</v>
       </c>
-      <c r="C202" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D202" s="36" t="s">
+      <c r="C202" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="E202" s="36" t="s">
+      <c r="E202" s="58" t="s">
         <v>1011</v>
       </c>
-      <c r="F202" s="36" t="s">
+      <c r="F202" s="58" t="s">
         <v>957</v>
       </c>
-      <c r="G202" s="58"/>
+      <c r="G202" s="60"/>
       <c r="H202" s="28"/>
       <c r="I202" s="28"/>
       <c r="J202" s="51"/>
@@ -15370,7 +15378,7 @@
         <v>959</v>
       </c>
       <c r="F203" s="31"/>
-      <c r="G203" s="58"/>
+      <c r="G203" s="60"/>
       <c r="H203" s="28"/>
       <c r="I203" s="28"/>
       <c r="J203" s="51"/>
@@ -15517,7 +15525,7 @@
       <c r="C209" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D209" s="57" t="s">
+      <c r="D209" s="59" t="s">
         <v>49</v>
       </c>
       <c r="E209" s="31" t="s">
@@ -15544,7 +15552,7 @@
       <c r="C210" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D210" s="57" t="s">
+      <c r="D210" s="59" t="s">
         <v>302</v>
       </c>
       <c r="E210" s="31" t="s">
